--- a/data/trans_dic/P32E$calle_2023-Nacimiento-trans_dic.xlsx
+++ b/data/trans_dic/P32E$calle_2023-Nacimiento-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en la calle (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en la calle (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -750,7 +750,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en la calle (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en la calle (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
